--- a/outputs/DHAKA2.xlsx
+++ b/outputs/DHAKA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page includes a section titled "Bug Reports, Suggestions, Other Feedback," which is directly related to creating a new issue. This aligns with Abi's motivation to accomplish their task and their comprehensive information processing style, as they would likely read through the available sections to find relevant information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the issue tracker as a necessary step toward creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly displays an "Issues" link in the navigation bar at the top. This link is prominent and intuitively named, making it clear to Abi that clicking on it would likely lead to an issue tracker, which aligns with their motivation to create a new issue. Additionally, Abi's comprehensive information processing style would guide them to look for relevant sections or links, and the "Issues" link fits this expectation.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides enough context for Abi to understand that this link will lead her to the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, Abi is directed to a page that clearly lists existing issues and includes a "New issue" button. This page matches Abi's expectations and provides a clear next step toward creating a new issue. The presence of the "New issue" button prominently on the page reassures Abi that they are making progress toward their goal and gives them the necessary information to proceed. This aligns with Abi's motivations and comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue. The presence of the "New issue" button and the list of existing issues will confirm to Abi that she is making progress toward her goal and provide her with the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear to Abi what the next step is to create a new issue. The button is easy to identify, and its label is straightforward, aligning with Abi's motivation to accomplish their task. Additionally, the comprehensive information processing style means Abi would have already reviewed the page and understood that this button is the correct action to take next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page provides sufficient context and visual cues for Abi to understand what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New Issue" button, Abi is directed to a page with multiple clear options for different types of issues they might want to create, such as "Bug report" and "Suggestion for improvement," each with a "Get started" button. This clear categorization and labeling reassure Abi that they are on the right track and making progress toward their goal. The layout and instructions are straightforward, providing all the necessary information for Abi to proceed confidently. This aligns with Abi's motivations to accomplish their task and their comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, Abi is taken to a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for Abi to follow, confirming that she is making progress toward her goal and providing her with the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page displays a clear "Get started" button next to the "Bug report" option. The labeling is straightforward and intuitive, making it easy for Abi to understand that clicking this button is the correct action to proceed with creating a bug report. This aligns with Abi's motivations to accomplish their task and their comprehensive information processing style, which would have led them to read through the available options and identify the appropriate next step. The page provides the necessary context and instructions to encourage confident action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to it. This makes it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "Get started" button for "Bug report" is the appropriate action to take to proceed with creating a new issue. The page provides clear and concise instructions, making it easy for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Get Started" for "Bug Report," Abi lands on a detailed form specifically for reporting bugs. The page clearly indicates that Abi is on the "Bug report" form with instructions and fields to fill out, confirming that they have taken the correct action and are making progress toward their goal. The form provides comprehensive fields for all necessary information, aligning with Abi's information processing style and ensuring they have all the information they need to proceed. This clarity and structure help Abi feel confident they are on the right track.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," Abi is taken to a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides clear guidance on what information is needed, confirming to Abi that she is making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, ensuring she has all the information she needs to complete the task.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is clearly labeled and provides detailed fields for Abi to fill out, including a title, JabRef version, operating system, steps to reproduce the behavior, and additional details. Each field is accompanied by clear instructions, making it easy for Abi to understand what information is needed. This aligns with Abi's motivation to complete the task and their comprehensive information processing style, as the form provides all the necessary information and guidance to proceed confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. Each field is accompanied by a brief description, guiding Abi on what information to provide. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know what to do at this step and will find the page good enough to take this action. The form provides clear instructions and necessary context, making it easy for Abi to fill out the required information.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, Abi can see all the information they have entered, including the title, version, operating system, and steps to reproduce the behavior. The form is clear and structured, providing a comprehensive overview of the bug report. Additionally, the presence of the "Submit new issue" button at the bottom indicates the final step to complete the task. This clarity and organization align with Abi's motivations to accomplish their task and their comprehensive information processing style, ensuring they know they have done the right thing and are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is enabled. This clear indication that she can now submit the form confirms that she has done the right thing and is making progress toward her goal. The form's structure and the presence of the "Submit new issue" button provide Abi with the necessary feedback and information to know that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is clearly visible at the bottom of the form, making it evident that this is the final step to submit the bug report. The form is well-structured, and Abi has already filled out all the necessary information. The button's label is straightforward, and its placement at the end of the form sequence logically signals the completion of the task. This aligns with Abi's motivation to complete the task and their comprehensive information processing style, ensuring they know what to do next and feel confident about taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear what Abi needs to do next. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that clicking this button is the final step in submitting the bug report. The page provides clear instructions and visual cues, ensuring that Abi knows what to do at this step and feels confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that clearly shows the newly created issue with all the details they submitted. The issue is marked as "Open" and displays the assigned issue number, confirming that the action was successful. This page also allows Abi to edit the issue or add comments, providing a sense of control and further progress toward their goal. The clear presentation of the submitted information reassures Abi that they have done the right thing and have all the necessary information available. This aligns with Abi's motivations and comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she entered. The issue is marked as "Open," and the information is clearly presented, confirming that she has successfully submitted the bug report. This feedback ensures that Abi knows she did the right thing and is making progress toward her goal. The page provides all the necessary information, including the ability to add comments or edit the issue, aligning with Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA2.xlsx
+++ b/outputs/DHAKA2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to accomplish the task of creating a new issue, and finding the issue tracker is a logical step toward achieving this goal. The page contains comprehensive information, including sections on "Bug Reports, Suggestions, Other Feedback" and "Contributing," which are relevant to finding the issue tracker. This aligns with ABI's comprehensive information processing style, as they would read through the provided information to understand the steps needed to create a new issue.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker. The page provides enough context for ABI to understand that this link will lead to the issue tracker.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to create a new issue, and the "Issues" link is prominently displayed at the top of the page, making it easy to find. The page provides comprehensive information, and the "Issues" link is a logical next step for someone looking to report a bug or create an issue. This aligns with ABI's information processing style, as they would recognize the "Issues" link as relevant to their goal of finding the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue. The presence of the "New issue" button and the list of issues will confirm to ABI that they are making progress toward their goal of finding the issue tracker and creating a new issue. The information is well-organized and relevant, aligning with ABI's comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently displays a "New issue" button. This provides clear feedback that ABI is on the right track toward creating a new issue. The page is well-organized and provides comprehensive information about existing issues, which aligns with ABI's information processing style. The presence of the "New issue" button indicates that ABI is making progress toward their goal and has all the information needed to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will recognize that clicking this button is the next logical step toward creating a new issue. The page provides a clear and straightforward path for ABI to follow, ensuring that they know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. ABI is motivated to create a new issue, and the button is labeled in a straightforward manner, indicating its purpose. The page is well-organized and provides comprehensive information about existing issues, which aligns with ABI's information processing style. This clarity and organization will help ABI feel confident in taking this action and knowing that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, Report a security vulnerability). Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for ABI to follow, ensuring that they know they did the right thing and are making progress toward their goal. The information is well-organized and relevant, aligning with ABI's comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, ABI will land on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, Report a security vulnerability). Each category has a "Get started" button, making it clear what to do next. This organization aligns with ABI's comprehensive information processing style, as it provides clear and distinct options for different types of issues. ABI will know they are making progress toward their goal and have all the information needed to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to each option. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand that clicking the "Get started" button for "Bug report" is the next step in creating a new issue. The page provides clear and straightforward instructions, making it easy for ABI to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly categorizes different types of issues, and the "Get started" button for "Bug report" is prominently displayed. This makes it clear and straightforward for ABI to understand what to do next. ABI is motivated to create a new issue, and the clear labeling and organization of the page align with ABI's comprehensive information processing style. The "Get started" button provides a clear call to action, indicating that clicking it will lead to the next step in creating a bug report.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information such as the title, version, operating system, and steps to reproduce the behavior. This structured format aligns with ABI's comprehensive information processing style and provides all the necessary information to proceed. ABI will know they did the right thing and are making progress toward their goal of creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get Started" button for "Bug Report," ABI will land on a detailed form specifically for reporting bugs. The form is clearly labeled with fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides ABI with all the necessary information and guidance to complete the bug report. The comprehensive nature of the form aligns with ABI's information processing style, ensuring they know they are making progress toward their goal and have all the information they need to proceed.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, making it clear what information is required. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand what to do at this step. The form provides all the necessary information and guidance for ABI to fill it out correctly.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is clearly structured with labeled fields, making it straightforward for ABI to understand what information is required. Each section of the form is clearly defined, with instructions and examples where necessary, which aligns with ABI's comprehensive information processing style. ABI is motivated to complete the task, and the form provides all the necessary guidance and information to fill it out correctly. The clear layout and detailed instructions will help ABI feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, ABI will see a well-organized summary of the information they have entered. The form includes all the necessary fields and provides clear instructions, ensuring that ABI knows they have done the right thing and are making progress toward their goal. The presence of a "Submit new issue" button further confirms that ABI is on the right track. The page provides all the information ABI needs to complete the task, aligning with their comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, ABI will see a clear and organized summary of the information they have entered. The form provides a structured layout with all the necessary fields filled in, which aligns with ABI's comprehensive information processing style. The presence of the "Submit new issue" button at the bottom of the form indicates the next step, confirming that ABI is making progress toward their goal. The clear layout and detailed information ensure that ABI knows they have done the right thing and have all the information they need to proceed.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will understand that clicking this button is the final step in submitting the bug report. The page provides clear instructions and a straightforward path, ensuring that ABI knows what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is clearly visible at the bottom of the form, indicating the final step in the process of creating a new issue. ABI is motivated to complete the task, and the button is labeled in a straightforward manner, making it clear what action to take next. The form is well-organized and provides comprehensive information, ensuring that ABI knows they have filled out all the necessary fields. This clarity and organization align with ABI's information processing style, helping them feel confident in taking this action and knowing they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information is well-organized, confirming that ABI has successfully submitted the issue. This page provides a clear indication that ABI did the right thing and is making progress toward their goal. The presence of options to edit the issue or add comments further supports ABI's understanding that they have completed the task correctly.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI will land on a page that displays the newly created issue with all the details they entered. The page shows the issue title, description, and other relevant information, confirming that the issue has been successfully submitted. This clear feedback aligns with ABI's comprehensive information processing style, as it provides a complete view of the submitted issue. ABI will know they have done the right thing and are making progress toward their goal, as the page confirms the successful creation of the issue and provides all the necessary information.</t>
         </is>
       </c>
     </row>
